--- a/keep-living/2020DailyLiveStatus.xlsx
+++ b/keep-living/2020DailyLiveStatus.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26925" windowHeight="12600"/>
+    <workbookView windowWidth="23325" windowHeight="12150" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="2" r:id="rId1"/>
     <sheet name="第4周" sheetId="3" r:id="rId2"/>
     <sheet name="第5周" sheetId="4" r:id="rId3"/>
     <sheet name="第6周" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="第7周" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t>本周计划</t>
   </si>
@@ -76,15 +76,36 @@
   <si>
     <t>终止</t>
   </si>
+  <si>
+    <t>早饭</t>
+  </si>
+  <si>
+    <t>钢琴1h</t>
+  </si>
+  <si>
+    <t>《鲁迅》1h</t>
+  </si>
+  <si>
+    <t>专业书csapp 1h</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -181,21 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -205,53 +211,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,25 +243,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,12 +258,79 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -356,25 +377,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,25 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,103 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +576,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +623,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -632,172 +668,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1191,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -1214,19 +1238,19 @@
       <c r="D1" s="5">
         <v>43844</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="17">
         <v>43845</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="18">
         <v>43846</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="19">
         <v>43847</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="20">
         <v>43848</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="20">
         <v>43849</v>
       </c>
     </row>
@@ -1240,19 +1264,19 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1260,12 +1284,12 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -1275,13 +1299,13 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1289,13 +1313,13 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1303,11 +1327,11 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1315,10 +1339,10 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1326,13 +1350,13 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1340,13 +1364,13 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1354,10 +1378,10 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1365,13 +1389,13 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1379,13 +1403,13 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1393,13 +1417,13 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1407,10 +1431,10 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1419,10 +1443,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1431,10 +1455,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1443,10 +1467,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1454,10 +1478,10 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1465,9 +1489,9 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1475,9 +1499,9 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1485,10 +1509,10 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1496,7 +1520,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1507,7 +1531,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1518,7 +1542,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1529,7 +1553,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1540,7 +1564,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1551,7 +1575,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1562,25 +1586,25 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1616,19 +1640,19 @@
       <c r="D1" s="5">
         <v>43851</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="17">
         <v>43852</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="18">
         <v>43853</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="19">
         <v>43854</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="20">
         <v>43855</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="20">
         <v>43856</v>
       </c>
     </row>
@@ -1642,19 +1666,19 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1673,7 +1697,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
@@ -1687,7 +1711,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1"/>
@@ -1701,7 +1725,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1724,7 +1748,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
@@ -1738,7 +1762,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1"/>
@@ -1752,7 +1776,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
@@ -1766,7 +1790,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
@@ -1780,7 +1804,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
@@ -1794,7 +1818,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
@@ -1998,19 +2022,19 @@
       <c r="D1" s="5">
         <v>43858</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="17">
         <v>43859</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="18">
         <v>43860</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="19">
         <v>43861</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="20">
         <v>43862</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="20">
         <v>43863</v>
       </c>
     </row>
@@ -2024,19 +2048,19 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2055,7 +2079,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
@@ -2069,7 +2093,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1"/>
@@ -2083,7 +2107,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2106,7 +2130,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
@@ -2120,7 +2144,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1"/>
@@ -2134,7 +2158,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
@@ -2148,7 +2172,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
@@ -2162,7 +2186,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
@@ -2176,7 +2200,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
@@ -2358,7 +2382,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -2380,19 +2404,19 @@
       <c r="D1" s="5">
         <v>43858</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="17">
         <v>43859</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="18">
         <v>43860</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="19">
         <v>43861</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="20">
         <v>43862</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="20">
         <v>43863</v>
       </c>
     </row>
@@ -2406,19 +2430,19 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2437,7 +2461,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
@@ -2451,7 +2475,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1"/>
@@ -2465,7 +2489,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2488,7 +2512,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
@@ -2502,7 +2526,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1"/>
@@ -2516,7 +2540,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
@@ -2530,7 +2554,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
@@ -2544,7 +2568,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
@@ -2558,7 +2582,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
@@ -2737,14 +2761,394 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
+    <col min="3" max="9" width="10.75" style="2"/>
+    <col min="10" max="16384" width="10" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43857</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43858</v>
+      </c>
+      <c r="E1" s="17">
+        <v>43859</v>
+      </c>
+      <c r="F1" s="18">
+        <v>43860</v>
+      </c>
+      <c r="G1" s="19">
+        <v>43861</v>
+      </c>
+      <c r="H1" s="20">
+        <v>43862</v>
+      </c>
+      <c r="I1" s="20">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:10">
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:10">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:10">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:10">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:10">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:10">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:10">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:10">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:10">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:10">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:10">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:10">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
